--- a/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2267,6 +2267,1406 @@
         <v>720</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>cardiology</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>25/12/2025</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>dermatology</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>08/01/2026</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>27/11/2025</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>30/11/2025</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>01/12/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>02/12/2025</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>immunology/haematology</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>INT-B2-B</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>tropical</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A1B84-178E-4D2F-A9AD-76FCB9B749D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627D1AC-B408-4F6B-A121-0A0DF05DB23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_Internal_1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -762,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -854,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -877,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -923,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -946,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1015,7 +1015,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1107,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1130,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1153,7 +1153,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1199,7 +1199,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G22" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1222,7 +1222,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G23" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1245,7 +1245,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G24" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1268,7 +1268,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G25" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1291,7 +1291,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G26" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1314,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1337,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1383,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1406,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1429,7 +1429,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G32" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1452,7 +1452,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G33" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1475,7 +1475,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G34" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1498,7 +1498,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G35" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G36" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1544,7 +1544,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G37" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1567,7 +1567,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G38" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1590,7 +1590,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G39" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1613,7 +1613,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G40" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1636,7 +1636,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G41" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1659,7 +1659,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1682,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1728,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1751,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="G46" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1774,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1797,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1820,7 +1820,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1843,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1866,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1912,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1935,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1958,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1981,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2004,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2027,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2050,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2073,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2096,7 +2096,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2142,7 +2142,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2165,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2188,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2211,7 +2211,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2234,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2280,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2303,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="G70" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2326,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="G71" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2349,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="G72" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2372,7 +2372,7 @@
         <v>12</v>
       </c>
       <c r="G73" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2395,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2418,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2441,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="G76" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2464,7 +2464,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G77" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2487,7 +2487,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G78" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2510,7 +2510,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G79" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2533,7 +2533,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G80" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2556,7 +2556,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G81" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2579,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2602,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2625,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2648,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2671,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2694,7 +2694,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G87" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2717,7 +2717,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G88" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2740,7 +2740,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G89" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -2763,7 +2763,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G90" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -2786,7 +2786,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G91" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2809,7 +2809,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G92" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -2832,7 +2832,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G93" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -2855,7 +2855,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G94" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -2878,7 +2878,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G95" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -2901,7 +2901,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G96" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -2924,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -2947,7 +2947,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -2970,7 +2970,7 @@
         <v>12</v>
       </c>
       <c r="G99" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -2993,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3016,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="G101" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3039,7 +3039,7 @@
         <v>12</v>
       </c>
       <c r="G102" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -3062,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="G103" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="G104" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3108,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="G105" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3131,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3154,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3177,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3200,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="G109" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3223,7 +3223,7 @@
         <v>12</v>
       </c>
       <c r="G110" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3246,7 +3246,7 @@
         <v>12</v>
       </c>
       <c r="G111" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -3269,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -3292,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="G113" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -3315,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="G114" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3338,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="G115" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3361,7 +3361,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -3384,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="G117" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -3407,7 +3407,7 @@
         <v>12</v>
       </c>
       <c r="G118" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -3430,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="G119" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -3453,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="G120" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -3476,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="G121" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -3499,7 +3499,7 @@
         <v>12</v>
       </c>
       <c r="G122" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3522,7 +3522,7 @@
         <v>12</v>
       </c>
       <c r="G123" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3545,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="G124" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -3568,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="G125" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -3591,7 +3591,7 @@
         <v>12</v>
       </c>
       <c r="G126" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -3614,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="G127" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -3637,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="G128" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -3660,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="G129" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -3683,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="G130" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -3706,7 +3706,7 @@
         <v>12</v>
       </c>
       <c r="G131" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -3729,7 +3729,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G132" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -3752,7 +3752,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G133" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -3775,7 +3775,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G134" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -3798,7 +3798,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G135" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -3821,7 +3821,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G136" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -3844,7 +3844,7 @@
         <v>12</v>
       </c>
       <c r="G137" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -3867,7 +3867,7 @@
         <v>12</v>
       </c>
       <c r="G138" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -3890,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="G139" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -3913,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="G140" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -3936,7 +3936,7 @@
         <v>12</v>
       </c>
       <c r="G141" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -3959,7 +3959,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G142" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -3982,7 +3982,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G143" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -4005,7 +4005,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G144" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -4028,7 +4028,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G145" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -4051,7 +4051,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G146" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -4074,7 +4074,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G147" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -4097,7 +4097,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G148" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -4120,7 +4120,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G149" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -4143,7 +4143,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G150" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -4166,7 +4166,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G151" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -4189,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="G152" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -4212,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="G153" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4235,7 +4235,7 @@
         <v>12</v>
       </c>
       <c r="G154" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -4258,7 +4258,7 @@
         <v>12</v>
       </c>
       <c r="G155" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -4281,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="G156" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -4304,7 +4304,7 @@
         <v>12</v>
       </c>
       <c r="G157" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -4327,7 +4327,7 @@
         <v>12</v>
       </c>
       <c r="G158" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -4350,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="G159" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -4373,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="G160" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="G161" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -4419,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="G162" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -4442,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="G163" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
         <v>12</v>
       </c>
       <c r="G164" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -4488,7 +4488,7 @@
         <v>12</v>
       </c>
       <c r="G165" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -4511,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="G166" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -4534,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="G167" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -4557,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="G168" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -4580,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="G169" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -4603,7 +4603,7 @@
         <v>12</v>
       </c>
       <c r="G170" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -4626,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="G171" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -4649,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="G172" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -4672,7 +4672,7 @@
         <v>12</v>
       </c>
       <c r="G173" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -4695,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="G174" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="G175" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -4741,7 +4741,7 @@
         <v>12</v>
       </c>
       <c r="G176" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -4764,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="G177" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -4787,7 +4787,7 @@
         <v>12</v>
       </c>
       <c r="G178" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -4810,7 +4810,7 @@
         <v>12</v>
       </c>
       <c r="G179" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -4833,7 +4833,7 @@
         <v>12</v>
       </c>
       <c r="G180" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -4856,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="G181" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -4879,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="G182" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -4902,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="G183" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -4925,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="G184" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -4948,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="G185" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -4971,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="G186" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -4994,7 +4994,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G187" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -5017,7 +5017,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G188" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -5040,7 +5040,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G189" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -5063,7 +5063,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G190" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -5086,7 +5086,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G191" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -5109,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="G192" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -5132,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="G193" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -5155,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="G194" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -5178,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="G195" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -5201,7 +5201,7 @@
         <v>12</v>
       </c>
       <c r="G196" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -5224,7 +5224,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G197" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -5247,7 +5247,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G198" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -5270,7 +5270,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G199" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -5293,7 +5293,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G200" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -5316,7 +5316,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G201" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -5339,7 +5339,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G202" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -5362,7 +5362,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G203" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -5385,7 +5385,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G204" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -5408,7 +5408,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G205" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -5431,7 +5431,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G206" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -5454,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="G207" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -5477,7 +5477,7 @@
         <v>12</v>
       </c>
       <c r="G208" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -5500,7 +5500,7 @@
         <v>12</v>
       </c>
       <c r="G209" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -5523,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="G210" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -5546,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="G211" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -5569,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="G212" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -5592,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="G213" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -5615,7 +5615,7 @@
         <v>12</v>
       </c>
       <c r="G214" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -5638,7 +5638,7 @@
         <v>12</v>
       </c>
       <c r="G215" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -5661,7 +5661,7 @@
         <v>12</v>
       </c>
       <c r="G216" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -5684,7 +5684,7 @@
         <v>12</v>
       </c>
       <c r="G217" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -5707,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="G218" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -5730,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="G219" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -5753,7 +5753,7 @@
         <v>12</v>
       </c>
       <c r="G220" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -5776,7 +5776,7 @@
         <v>12</v>
       </c>
       <c r="G221" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -5799,7 +5799,7 @@
         <v>12</v>
       </c>
       <c r="G222" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -5822,7 +5822,7 @@
         <v>12</v>
       </c>
       <c r="G223" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -5845,7 +5845,7 @@
         <v>12</v>
       </c>
       <c r="G224" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -5868,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="G225" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -5891,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="G226" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -5914,7 +5914,7 @@
         <v>12</v>
       </c>
       <c r="G227" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -5937,7 +5937,7 @@
         <v>12</v>
       </c>
       <c r="G228" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -5960,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="G229" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -5983,7 +5983,7 @@
         <v>12</v>
       </c>
       <c r="G230" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -6006,7 +6006,7 @@
         <v>12</v>
       </c>
       <c r="G231" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -6029,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="G232" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -6052,7 +6052,7 @@
         <v>12</v>
       </c>
       <c r="G233" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -6075,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="G234" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -6098,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="G235" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -6121,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="G236" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -6144,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="G237" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -6167,7 +6167,7 @@
         <v>12</v>
       </c>
       <c r="G238" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -6190,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="G239" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -6213,7 +6213,7 @@
         <v>12</v>
       </c>
       <c r="G240" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -6236,7 +6236,7 @@
         <v>12</v>
       </c>
       <c r="G241" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -6259,7 +6259,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G242" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -6282,7 +6282,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G243" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -6305,7 +6305,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G244" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -6328,7 +6328,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G245" s="9">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -6351,7 +6351,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G246" s="5">
-        <v>180</v>
+        <v>900</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -6374,7 +6374,7 @@
         <v>12</v>
       </c>
       <c r="G247" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -6397,7 +6397,7 @@
         <v>12</v>
       </c>
       <c r="G248" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -6420,7 +6420,7 @@
         <v>12</v>
       </c>
       <c r="G249" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -6443,7 +6443,7 @@
         <v>12</v>
       </c>
       <c r="G250" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -6466,7 +6466,7 @@
         <v>12</v>
       </c>
       <c r="G251" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -6489,7 +6489,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G252" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -6512,7 +6512,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G253" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -6535,7 +6535,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G254" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -6558,7 +6558,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G255" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -6581,7 +6581,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G256" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -6604,7 +6604,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G257" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -6627,7 +6627,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G258" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -6650,7 +6650,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G259" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -6673,7 +6673,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G260" s="5">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -6696,7 +6696,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G261" s="9">
-        <v>240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -6719,7 +6719,7 @@
         <v>12</v>
       </c>
       <c r="G262" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -6742,7 +6742,7 @@
         <v>12</v>
       </c>
       <c r="G263" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -6765,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="G264" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -6788,7 +6788,7 @@
         <v>12</v>
       </c>
       <c r="G265" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -6811,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="G266" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -6834,7 +6834,7 @@
         <v>12</v>
       </c>
       <c r="G267" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -6857,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="G268" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -6880,7 +6880,7 @@
         <v>12</v>
       </c>
       <c r="G269" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -6903,7 +6903,7 @@
         <v>12</v>
       </c>
       <c r="G270" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -6926,7 +6926,7 @@
         <v>12</v>
       </c>
       <c r="G271" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -6949,7 +6949,7 @@
         <v>12</v>
       </c>
       <c r="G272" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
@@ -6972,7 +6972,7 @@
         <v>12</v>
       </c>
       <c r="G273" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -6995,7 +6995,7 @@
         <v>12</v>
       </c>
       <c r="G274" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
@@ -7018,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="G275" s="9">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -7041,7 +7041,7 @@
         <v>12</v>
       </c>
       <c r="G276" s="5">
-        <v>360</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627D1AC-B408-4F6B-A121-0A0DF05DB23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DACE25-1660-4E01-8AC4-05627F904E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="90">
   <si>
     <t>Year</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>06/01/2026</t>
-  </si>
-  <si>
-    <t>07/01/2026</t>
   </si>
   <si>
     <t>08/01/2026</t>
@@ -681,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G276"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -812,186 +809,186 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
         <v>900</v>
       </c>
     </row>
@@ -1006,10 +1003,10 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
@@ -1029,10 +1026,10 @@
         <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>12</v>
@@ -1052,10 +1049,10 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>12</v>
@@ -1075,10 +1072,10 @@
         <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
@@ -1098,10 +1095,10 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
@@ -1121,10 +1118,10 @@
         <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
@@ -1141,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G20" s="5">
         <v>900</v>
@@ -1164,16 +1161,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G21" s="9">
         <v>900</v>
@@ -1187,13 +1184,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" s="4">
         <v>0.33333333333333331</v>
@@ -1210,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="8">
         <v>0.33333333333333331</v>
@@ -1233,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" s="4">
         <v>0.33333333333333331</v>
@@ -1256,16 +1253,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.33333333333333331</v>
+        <v>48</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G25" s="9">
         <v>900</v>
@@ -1279,16 +1276,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.33333333333333331</v>
+        <v>49</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G26" s="5">
         <v>900</v>
@@ -1302,13 +1299,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
@@ -1325,13 +1322,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>12</v>
@@ -1348,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
@@ -1371,16 +1368,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G30" s="5">
         <v>900</v>
@@ -1394,16 +1391,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G31" s="9">
         <v>900</v>
@@ -1417,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
@@ -1440,10 +1437,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>43</v>
@@ -1463,10 +1460,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>56</v>
@@ -1486,13 +1483,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F35" s="8">
         <v>0.41666666666666669</v>
@@ -1509,13 +1506,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F36" s="4">
         <v>0.41666666666666669</v>
@@ -1532,10 +1529,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>58</v>
@@ -1555,10 +1552,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>45</v>
@@ -1578,13 +1575,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F39" s="8">
         <v>0.41666666666666669</v>
@@ -1601,16 +1598,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.41666666666666669</v>
+        <v>60</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G40" s="5">
         <v>900</v>
@@ -1624,16 +1621,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0.41666666666666669</v>
+        <v>61</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G41" s="9">
         <v>900</v>
@@ -1647,13 +1644,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>12</v>
@@ -1670,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>12</v>
@@ -1693,13 +1690,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>12</v>
@@ -1716,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>12</v>
@@ -1739,13 +1736,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>12</v>
@@ -1762,13 +1759,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>12</v>
@@ -1785,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>12</v>
@@ -1808,13 +1805,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>12</v>
@@ -1831,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="2">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>12</v>
@@ -1854,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="6">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>12</v>
@@ -1877,13 +1874,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>12</v>
@@ -1900,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>12</v>
@@ -1923,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>12</v>
@@ -1943,16 +1940,16 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>12</v>
@@ -1966,16 +1963,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>12</v>
@@ -1989,16 +1986,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>12</v>
@@ -2012,13 +2009,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>55</v>
@@ -2031,531 +2028,531 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="E67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E68" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="E69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E70" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="E71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E72" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="E73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G74" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="E75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G75" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="E76" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G76" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="E77" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G77" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="E78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G78" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G77" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="E79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F78" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G78" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="E80" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F79" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G79" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F80" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G80" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="E81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5">
         <v>900</v>
       </c>
     </row>
@@ -2564,16 +2561,16 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>12</v>
@@ -2587,19 +2584,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G83" s="9">
         <v>900</v>
@@ -2610,19 +2607,19 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G84" s="5">
         <v>900</v>
@@ -2633,19 +2630,19 @@
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G85" s="9">
         <v>900</v>
@@ -2656,19 +2653,19 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G86" s="5">
         <v>900</v>
@@ -2679,16 +2676,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F87" s="8">
         <v>0.41666666666666669</v>
@@ -2702,16 +2699,16 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F88" s="4">
         <v>0.41666666666666669</v>
@@ -2725,16 +2722,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F89" s="8">
         <v>0.41666666666666669</v>
@@ -2748,16 +2745,16 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F90" s="4">
         <v>0.41666666666666669</v>
@@ -2771,16 +2768,16 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F91" s="8">
         <v>0.41666666666666669</v>
@@ -2794,16 +2791,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F92" s="4">
         <v>0.41666666666666669</v>
@@ -2817,19 +2814,19 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F93" s="8">
-        <v>0.41666666666666669</v>
+        <v>48</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G93" s="9">
         <v>900</v>
@@ -2840,19 +2837,19 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0.41666666666666669</v>
+        <v>49</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G94" s="5">
         <v>900</v>
@@ -2863,19 +2860,19 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F95" s="8">
-        <v>0.41666666666666669</v>
+        <v>50</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G95" s="9">
         <v>900</v>
@@ -2886,19 +2883,19 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0.41666666666666669</v>
+        <v>51</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G96" s="5">
         <v>900</v>
@@ -2909,16 +2906,16 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>12</v>
@@ -2932,16 +2929,16 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>12</v>
@@ -2955,16 +2952,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>12</v>
@@ -2978,16 +2975,16 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>12</v>
@@ -3001,16 +2998,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>12</v>
@@ -3024,16 +3021,16 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>12</v>
@@ -3047,16 +3044,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>12</v>
@@ -3070,16 +3067,16 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>12</v>
@@ -3093,16 +3090,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F105" s="8" t="s">
         <v>12</v>
@@ -3116,16 +3113,16 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>12</v>
@@ -3139,16 +3136,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>12</v>
@@ -3162,16 +3159,16 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>12</v>
@@ -3185,16 +3182,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D109" s="6">
+        <v>2</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>12</v>
@@ -3208,16 +3205,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>12</v>
@@ -3231,366 +3228,366 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="6">
+        <v>6</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2">
+        <v>7</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="6">
+        <v>8</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2">
+        <v>9</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="6">
+        <v>10</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2">
-        <v>1</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2">
-        <v>3</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="6">
-        <v>4</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2">
-        <v>5</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="6">
-        <v>6</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2">
-        <v>7</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="6">
-        <v>8</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2">
-        <v>9</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="6">
-        <v>10</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="9">
+      <c r="E121" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="A122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="5">
+      <c r="D122" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" s="6" t="s">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="9">
+      <c r="D123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="A124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="5">
+      <c r="D124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" s="6" t="s">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="9">
+      <c r="D125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="A126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="5">
+      <c r="D126" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="9">
         <v>900</v>
       </c>
     </row>
@@ -3599,19 +3596,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G127" s="9">
         <v>900</v>
@@ -3622,90 +3619,90 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G128" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="9">
+      <c r="A129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G129" s="5">
         <v>900</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="5">
+      <c r="A130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="6">
+        <v>4</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G130" s="9">
         <v>900</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="9">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G131" s="5">
         <v>900</v>
       </c>
     </row>
@@ -3714,19 +3711,19 @@
         <v>7</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D132" s="6">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F132" s="8">
-        <v>0.33333333333333331</v>
+        <v>14</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G132" s="9">
         <v>900</v>
@@ -3737,389 +3734,389 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="2">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F137" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G137" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G138" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G139" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G140" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F133" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G133" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="2">
-        <v>3</v>
-      </c>
-      <c r="E134" s="3" t="s">
+      <c r="F141" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G141" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G142" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F143" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G143" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F134" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G134" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="6">
-        <v>4</v>
-      </c>
-      <c r="E135" s="7" t="s">
+      <c r="F144" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G144" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G145" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F135" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G135" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D136" s="2">
-        <v>5</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F136" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G136" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="6" t="s">
+      <c r="F146" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G146" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="E147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="6" t="s">
+      <c r="E148" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E139" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F142" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G142" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F143" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G143" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F144" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G144" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F145" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G145" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G146" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F147" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G147" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F148" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G148" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F149" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G149" s="9">
+      <c r="E149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="5">
         <v>900</v>
       </c>
     </row>
@@ -4128,19 +4125,19 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F150" s="4">
-        <v>0.41666666666666669</v>
+        <v>35</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G150" s="5">
         <v>900</v>
@@ -4151,19 +4148,19 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F151" s="8">
-        <v>0.41666666666666669</v>
+        <v>36</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G151" s="9">
         <v>900</v>
@@ -4174,16 +4171,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>12</v>
@@ -4197,16 +4194,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>12</v>
@@ -4220,16 +4217,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>12</v>
@@ -4243,16 +4240,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>12</v>
@@ -4266,16 +4263,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>12</v>
@@ -4289,16 +4286,16 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>12</v>
@@ -4312,16 +4309,16 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>12</v>
@@ -4335,16 +4332,16 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F159" s="8" t="s">
         <v>12</v>
@@ -4358,159 +4355,159 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D161" s="6" t="s">
+      <c r="E164" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G164" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E161" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="E165" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G165" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G164" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F165" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G166" s="5">
+      <c r="E166" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="9">
         <v>900</v>
       </c>
     </row>
@@ -4519,16 +4516,16 @@
         <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -4542,16 +4539,16 @@
         <v>7</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>12</v>
@@ -4565,16 +4562,16 @@
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -4588,16 +4585,16 @@
         <v>7</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F170" s="8" t="s">
         <v>12</v>
@@ -4611,16 +4608,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>12</v>
@@ -4634,16 +4631,16 @@
         <v>7</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F172" s="8" t="s">
         <v>12</v>
@@ -4657,16 +4654,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>12</v>
@@ -4680,16 +4677,16 @@
         <v>7</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F174" s="8" t="s">
         <v>12</v>
@@ -4703,16 +4700,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>12</v>
@@ -4726,16 +4723,16 @@
         <v>7</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>12</v>
@@ -4745,94 +4742,94 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C177" s="6" t="s">
+      <c r="A177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G179" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" s="5">
+      <c r="E180" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G180" s="9">
         <v>900</v>
       </c>
     </row>
@@ -4841,19 +4838,19 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="F181" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G181" s="9">
         <v>900</v>
@@ -4864,19 +4861,19 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="F182" s="4">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G182" s="5">
         <v>900</v>
@@ -4887,19 +4884,19 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="F183" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G183" s="9">
         <v>900</v>
@@ -4910,16 +4907,16 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>12</v>
@@ -4933,16 +4930,16 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F185" s="8" t="s">
         <v>12</v>
@@ -4956,16 +4953,16 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>12</v>
@@ -4979,19 +4976,19 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F187" s="8">
-        <v>0.33333333333333331</v>
+        <v>43</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G187" s="9">
         <v>900</v>
@@ -5002,19 +4999,19 @@
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F188" s="4">
-        <v>0.33333333333333331</v>
+        <v>56</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G188" s="5">
         <v>900</v>
@@ -5025,19 +5022,19 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F189" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G189" s="9">
         <v>900</v>
@@ -5048,19 +5045,19 @@
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F190" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G190" s="5">
         <v>900</v>
@@ -5071,596 +5068,596 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D191" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G191" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F191" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G191" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="E192" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G192" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G193" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G194" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G195" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G196" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F197" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G197" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D193" s="6" t="s">
+      <c r="E198" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E193" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E199" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D195" s="6" t="s">
+      <c r="E200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E201" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F195" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="F209" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D197" s="6" t="s">
+      <c r="E212" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E213" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F197" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G197" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E198" s="3" t="s">
+      <c r="F214" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F198" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G198" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E199" s="7" t="s">
+      <c r="F215" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F199" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G199" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F200" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G200" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F201" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G201" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F202" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G202" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F203" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G203" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F204" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G204" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F205" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G205" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F206" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G206" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F210" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E211" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D215" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="5">
+      <c r="F216" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="9">
         <v>900</v>
       </c>
     </row>
@@ -5669,16 +5666,16 @@
         <v>7</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>12</v>
@@ -5692,16 +5689,16 @@
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F218" s="4" t="s">
         <v>12</v>
@@ -5715,16 +5712,16 @@
         <v>7</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>12</v>
@@ -5738,16 +5735,16 @@
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>12</v>
@@ -5761,16 +5758,16 @@
         <v>7</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F221" s="8" t="s">
         <v>12</v>
@@ -5784,16 +5781,16 @@
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>12</v>
@@ -5807,16 +5804,16 @@
         <v>7</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F223" s="8" t="s">
         <v>12</v>
@@ -5830,16 +5827,16 @@
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>12</v>
@@ -5853,16 +5850,16 @@
         <v>7</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>12</v>
@@ -5876,16 +5873,16 @@
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>12</v>
@@ -5899,16 +5896,16 @@
         <v>7</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>12</v>
@@ -5922,16 +5919,16 @@
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
@@ -5945,16 +5942,16 @@
         <v>7</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>12</v>
@@ -5968,16 +5965,16 @@
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>12</v>
@@ -5991,16 +5988,16 @@
         <v>7</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F231" s="8" t="s">
         <v>12</v>
@@ -6014,19 +6011,19 @@
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="F232" s="4">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G232" s="5">
         <v>900</v>
@@ -6037,19 +6034,19 @@
         <v>7</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="F233" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G233" s="9">
         <v>900</v>
@@ -6060,19 +6057,19 @@
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F234" s="4">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G234" s="5">
         <v>900</v>
@@ -6083,19 +6080,19 @@
         <v>7</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F235" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G235" s="9">
         <v>900</v>
@@ -6106,19 +6103,19 @@
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="F236" s="4">
+        <v>0.33333333333333331</v>
       </c>
       <c r="G236" s="5">
         <v>900</v>
@@ -6129,16 +6126,16 @@
         <v>7</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F237" s="8" t="s">
         <v>12</v>
@@ -6152,16 +6149,16 @@
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>12</v>
@@ -6175,16 +6172,16 @@
         <v>7</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F239" s="8" t="s">
         <v>12</v>
@@ -6198,16 +6195,16 @@
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>12</v>
@@ -6221,16 +6218,16 @@
         <v>7</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F241" s="8" t="s">
         <v>12</v>
@@ -6244,19 +6241,19 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F242" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G242" s="5">
         <v>900</v>
@@ -6267,19 +6264,19 @@
         <v>7</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F243" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G243" s="9">
         <v>900</v>
@@ -6290,19 +6287,19 @@
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F244" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G244" s="5">
         <v>900</v>
@@ -6313,19 +6310,19 @@
         <v>7</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F245" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G245" s="9">
         <v>900</v>
@@ -6336,19 +6333,19 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F246" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G246" s="5">
         <v>900</v>
@@ -6359,19 +6356,19 @@
         <v>7</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F247" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="F247" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G247" s="9">
         <v>900</v>
@@ -6382,19 +6379,19 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F248" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G248" s="5">
         <v>900</v>
@@ -6405,19 +6402,19 @@
         <v>7</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F249" s="8" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="F249" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G249" s="9">
         <v>900</v>
@@ -6428,19 +6425,19 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="F250" s="4">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G250" s="5">
         <v>900</v>
@@ -6451,19 +6448,19 @@
         <v>7</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F251" s="8" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="F251" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G251" s="9">
         <v>900</v>
@@ -6474,19 +6471,19 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F252" s="4">
-        <v>0.41666666666666669</v>
+        <v>54</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G252" s="5">
         <v>900</v>
@@ -6497,19 +6494,19 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" s="8">
-        <v>0.41666666666666669</v>
+        <v>42</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G253" s="9">
         <v>900</v>
@@ -6520,19 +6517,19 @@
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F254" s="4">
-        <v>0.41666666666666669</v>
+        <v>55</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G254" s="5">
         <v>900</v>
@@ -6543,19 +6540,19 @@
         <v>7</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F255" s="8">
-        <v>0.41666666666666669</v>
+        <v>43</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G255" s="9">
         <v>900</v>
@@ -6566,19 +6563,19 @@
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F256" s="4">
-        <v>0.41666666666666669</v>
+        <v>56</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G256" s="5">
         <v>900</v>
@@ -6589,19 +6586,19 @@
         <v>7</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F257" s="8">
-        <v>0.41666666666666669</v>
+        <v>57</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G257" s="9">
         <v>900</v>
@@ -6612,19 +6609,19 @@
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F258" s="4">
-        <v>0.41666666666666669</v>
+        <v>44</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G258" s="5">
         <v>900</v>
@@ -6635,19 +6632,19 @@
         <v>7</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F259" s="8">
-        <v>0.41666666666666669</v>
+        <v>58</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G259" s="9">
         <v>900</v>
@@ -6658,19 +6655,19 @@
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F260" s="4">
-        <v>0.41666666666666669</v>
+        <v>45</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G260" s="5">
         <v>900</v>
@@ -6681,19 +6678,19 @@
         <v>7</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F261" s="8">
-        <v>0.41666666666666669</v>
+        <v>46</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G261" s="9">
         <v>900</v>
@@ -6704,16 +6701,16 @@
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>12</v>
@@ -6727,16 +6724,16 @@
         <v>7</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F263" s="8" t="s">
         <v>12</v>
@@ -6750,16 +6747,16 @@
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>12</v>
@@ -6773,16 +6770,16 @@
         <v>7</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F265" s="8" t="s">
         <v>12</v>
@@ -6796,16 +6793,16 @@
         <v>7</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>12</v>
@@ -6814,242 +6811,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F267" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G267" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G268" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F269" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G269" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G270" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E271" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F271" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G271" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G272" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E273" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F273" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A274" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G274" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A275" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F275" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G275" s="9">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A276" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G276" s="5">
-        <v>900</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G276">
-    <sortCondition ref="A2:A276"/>
-    <sortCondition ref="B2:B276"/>
-    <sortCondition ref="C2:C276"/>
-    <sortCondition ref="E2:E276"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G266">
+    <sortCondition ref="A2:A266"/>
+    <sortCondition ref="B2:B266"/>
+    <sortCondition ref="C2:C266"/>
+    <sortCondition ref="E2:E266"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
+++ b/modules_schedules/Y4_B2526_General_&_Special_Internal_1_B2_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DACE25-1660-4E01-8AC4-05627F904E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271B4E4-E41E-48EA-9C00-DA1111F0BFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_Internal_1" sheetId="1" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>04/12/2025</t>
   </si>
   <si>
-    <t>tropical</t>
-  </si>
-  <si>
     <t>08/02/2026</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>10/01/2026</t>
+  </si>
+  <si>
+    <t>tropical medicine</t>
   </si>
 </sst>
 </file>
@@ -1828,13 +1828,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>12</v>
@@ -1851,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>12</v>
@@ -1874,13 +1874,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>12</v>
@@ -1897,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>12</v>
@@ -1920,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>12</v>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>9</v>
@@ -1949,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>12</v>
@@ -1963,7 +1963,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1986,7 +1986,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>9</v>
@@ -2009,7 +2009,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
@@ -2041,7 +2041,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>12</v>
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>9</v>
@@ -2078,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -2101,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>9</v>
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -2147,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>31</v>
@@ -2170,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>31</v>
@@ -2193,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>31</v>
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>31</v>
@@ -2239,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>31</v>
@@ -2248,7 +2248,7 @@
         <v>19</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>12</v>
@@ -2262,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>31</v>
@@ -2285,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>31</v>
@@ -2308,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -2331,7 +2331,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>31</v>
@@ -2354,7 +2354,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>31</v>
@@ -2363,7 +2363,7 @@
         <v>29</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>12</v>
@@ -2377,7 +2377,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>41</v>
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>41</v>
@@ -2423,7 +2423,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>41</v>
@@ -2446,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>41</v>
@@ -2469,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>41</v>
@@ -2492,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>47</v>
@@ -2515,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>47</v>
@@ -2538,7 +2538,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>47</v>
@@ -2561,7 +2561,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>47</v>
@@ -2584,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>53</v>
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>53</v>
@@ -2630,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>53</v>
@@ -2653,7 +2653,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>53</v>
@@ -2676,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>53</v>
@@ -2699,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>53</v>
@@ -2722,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>53</v>
@@ -2745,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>53</v>
@@ -2768,7 +2768,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>53</v>
@@ -2791,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>53</v>
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>59</v>
@@ -2837,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>59</v>
@@ -2860,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>59</v>
@@ -2883,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>59</v>
@@ -2906,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>59</v>
@@ -2929,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>59</v>
@@ -2938,7 +2938,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>12</v>
@@ -2952,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>59</v>
@@ -2961,7 +2961,7 @@
         <v>23</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>12</v>
@@ -2975,7 +2975,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>59</v>
@@ -2984,7 +2984,7 @@
         <v>25</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>12</v>
@@ -2998,7 +2998,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>59</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>12</v>
@@ -3021,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>59</v>
@@ -3030,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>12</v>
@@ -3044,10 +3044,10 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>10</v>
@@ -3067,10 +3067,10 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>13</v>
@@ -3090,10 +3090,10 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>15</v>
@@ -3113,10 +3113,10 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>17</v>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>19</v>
@@ -3159,7 +3159,7 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3168,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>12</v>
@@ -3182,7 +3182,7 @@
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>9</v>
@@ -3205,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3228,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>9</v>
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>9</v>
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>12</v>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3297,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>9</v>
@@ -3320,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3343,7 +3343,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>9</v>
@@ -3366,7 +3366,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>31</v>
@@ -3389,7 +3389,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>31</v>
@@ -3412,7 +3412,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>31</v>
@@ -3435,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>31</v>
@@ -3458,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>31</v>
@@ -3481,7 +3481,7 @@
         <v>7</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>31</v>
@@ -3504,7 +3504,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>31</v>
@@ -3527,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>31</v>
@@ -3550,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>31</v>
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>31</v>
@@ -3596,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>41</v>
@@ -3619,7 +3619,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>41</v>
@@ -3642,7 +3642,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>41</v>
@@ -3651,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F129" s="4">
         <v>0.33333333333333331</v>
@@ -3665,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>41</v>
@@ -3674,7 +3674,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F130" s="8">
         <v>0.33333333333333331</v>
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>41</v>
@@ -3697,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F131" s="4">
         <v>0.33333333333333331</v>
@@ -3711,7 +3711,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>47</v>
@@ -3734,7 +3734,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>47</v>
@@ -3757,7 +3757,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>47</v>
@@ -3780,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>47</v>
@@ -3803,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>47</v>
@@ -3812,7 +3812,7 @@
         <v>19</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>12</v>
@@ -3826,7 +3826,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>53</v>
@@ -3849,7 +3849,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>53</v>
@@ -3872,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>53</v>
@@ -3895,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>53</v>
@@ -3918,7 +3918,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>53</v>
@@ -3941,7 +3941,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>53</v>
@@ -3950,7 +3950,7 @@
         <v>21</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F142" s="8">
         <v>0.41666666666666669</v>
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>53</v>
@@ -3973,7 +3973,7 @@
         <v>23</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F143" s="4">
         <v>0.41666666666666669</v>
@@ -3987,7 +3987,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>53</v>
@@ -3996,7 +3996,7 @@
         <v>25</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F144" s="8">
         <v>0.41666666666666669</v>
@@ -4010,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>53</v>
@@ -4019,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F145" s="4">
         <v>0.41666666666666669</v>
@@ -4033,7 +4033,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>53</v>
@@ -4042,7 +4042,7 @@
         <v>29</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F146" s="8">
         <v>0.41666666666666669</v>
@@ -4056,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>59</v>
@@ -4079,7 +4079,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>59</v>
@@ -4102,7 +4102,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>59</v>
@@ -4125,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>59</v>
@@ -4148,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>59</v>
@@ -4171,7 +4171,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>59</v>
@@ -4194,7 +4194,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>59</v>
@@ -4217,7 +4217,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>59</v>
@@ -4240,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>59</v>
@@ -4263,10 +4263,10 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -4286,10 +4286,10 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>13</v>
@@ -4309,10 +4309,10 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>15</v>
@@ -4332,10 +4332,10 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>17</v>
@@ -4355,16 +4355,16 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>12</v>
@@ -4378,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
@@ -4387,7 +4387,7 @@
         <v>21</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>12</v>
@@ -4401,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4447,7 +4447,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>9</v>
@@ -4470,7 +4470,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4493,7 +4493,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>9</v>
@@ -4502,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F166" s="8" t="s">
         <v>12</v>
@@ -4516,7 +4516,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -4525,7 +4525,7 @@
         <v>13</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>12</v>
@@ -4539,7 +4539,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>9</v>
@@ -4548,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F168" s="8" t="s">
         <v>12</v>
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4571,7 +4571,7 @@
         <v>17</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>12</v>
@@ -4585,7 +4585,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>31</v>
@@ -4608,7 +4608,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>31</v>
@@ -4631,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>31</v>
@@ -4654,7 +4654,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>31</v>
@@ -4677,7 +4677,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>31</v>
@@ -4700,7 +4700,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>31</v>
@@ -4723,7 +4723,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>31</v>
@@ -4746,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>31</v>
@@ -4769,7 +4769,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>31</v>
@@ -4792,7 +4792,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>31</v>
@@ -4815,7 +4815,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>41</v>
@@ -4838,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>41</v>
@@ -4861,7 +4861,7 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>41</v>
@@ -4884,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>41</v>
@@ -4907,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>47</v>
@@ -4930,7 +4930,7 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>47</v>
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>47</v>
@@ -4976,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>47</v>
@@ -4999,7 +4999,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>47</v>
@@ -5022,7 +5022,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>53</v>
@@ -5045,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>53</v>
@@ -5068,7 +5068,7 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>53</v>
@@ -5091,7 +5091,7 @@
         <v>7</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>53</v>
@@ -5114,7 +5114,7 @@
         <v>7</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>53</v>
@@ -5137,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>53</v>
@@ -5160,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>53</v>
@@ -5183,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>53</v>
@@ -5206,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>53</v>
@@ -5229,7 +5229,7 @@
         <v>7</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>59</v>
@@ -5252,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>59</v>
@@ -5275,7 +5275,7 @@
         <v>7</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>59</v>
@@ -5298,7 +5298,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>59</v>
@@ -5321,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>59</v>
@@ -5330,7 +5330,7 @@
         <v>19</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F202" s="8" t="s">
         <v>12</v>
@@ -5344,7 +5344,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>59</v>
@@ -5367,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>59</v>
@@ -5390,7 +5390,7 @@
         <v>7</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>59</v>
@@ -5413,7 +5413,7 @@
         <v>7</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>59</v>
@@ -5436,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>59</v>
@@ -5445,7 +5445,7 @@
         <v>29</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F207" s="4" t="s">
         <v>12</v>
@@ -5459,10 +5459,10 @@
         <v>7</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>10</v>
@@ -5482,10 +5482,10 @@
         <v>7</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>13</v>
@@ -5505,10 +5505,10 @@
         <v>7</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>15</v>
@@ -5528,10 +5528,10 @@
         <v>7</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>17</v>
@@ -5551,10 +5551,10 @@
         <v>7</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>19</v>
@@ -5574,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
@@ -5583,7 +5583,7 @@
         <v>10</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>12</v>
@@ -5597,7 +5597,7 @@
         <v>7</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>9</v>
@@ -5620,7 +5620,7 @@
         <v>7</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
@@ -5643,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>9</v>
@@ -5666,7 +5666,7 @@
         <v>7</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>9</v>
@@ -5675,7 +5675,7 @@
         <v>21</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F217" s="8" t="s">
         <v>12</v>
@@ -5689,7 +5689,7 @@
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
@@ -5712,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>9</v>
@@ -5735,7 +5735,7 @@
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
@@ -5758,7 +5758,7 @@
         <v>7</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>9</v>
@@ -5781,7 +5781,7 @@
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>31</v>
@@ -5804,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>31</v>
@@ -5827,7 +5827,7 @@
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>31</v>
@@ -5850,7 +5850,7 @@
         <v>7</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>31</v>
@@ -5873,7 +5873,7 @@
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>31</v>
@@ -5896,7 +5896,7 @@
         <v>7</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>31</v>
@@ -5905,7 +5905,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>12</v>
@@ -5919,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>31</v>
@@ -5928,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
@@ -5942,7 +5942,7 @@
         <v>7</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>31</v>
@@ -5951,7 +5951,7 @@
         <v>25</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>12</v>
@@ -5965,7 +5965,7 @@
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>31</v>
@@ -5974,7 +5974,7 @@
         <v>27</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>12</v>
@@ -5988,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>31</v>
@@ -5997,7 +5997,7 @@
         <v>29</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F231" s="8" t="s">
         <v>12</v>
@@ -6011,7 +6011,7 @@
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>41</v>
@@ -6034,7 +6034,7 @@
         <v>7</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>41</v>
@@ -6057,7 +6057,7 @@
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>41</v>
@@ -6080,7 +6080,7 @@
         <v>7</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>41</v>
@@ -6103,7 +6103,7 @@
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>41</v>
@@ -6112,7 +6112,7 @@
         <v>19</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F236" s="4">
         <v>0.33333333333333331</v>
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>47</v>
@@ -6149,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>47</v>
@@ -6172,7 +6172,7 @@
         <v>7</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>47</v>
@@ -6195,7 +6195,7 @@
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>47</v>
@@ -6218,7 +6218,7 @@
         <v>7</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>47</v>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>53</v>
@@ -6264,7 +6264,7 @@
         <v>7</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>53</v>
@@ -6287,7 +6287,7 @@
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>53</v>
@@ -6310,7 +6310,7 @@
         <v>7</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>53</v>
@@ -6333,7 +6333,7 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>53</v>
@@ -6342,7 +6342,7 @@
         <v>19</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F246" s="4">
         <v>0.41666666666666669</v>
@@ -6356,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>53</v>
@@ -6379,7 +6379,7 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>53</v>
@@ -6402,7 +6402,7 @@
         <v>7</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>53</v>
@@ -6425,7 +6425,7 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>53</v>
@@ -6448,7 +6448,7 @@
         <v>7</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>53</v>
@@ -6457,7 +6457,7 @@
         <v>29</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F251" s="8">
         <v>0.41666666666666669</v>
@@ -6471,7 +6471,7 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>59</v>
@@ -6494,7 +6494,7 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>59</v>
@@ -6517,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>59</v>
@@ -6540,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>59</v>
@@ -6563,7 +6563,7 @@
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>59</v>
@@ -6586,7 +6586,7 @@
         <v>7</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>59</v>
@@ -6609,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>59</v>
@@ -6632,7 +6632,7 @@
         <v>7</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>59</v>
@@ -6655,7 +6655,7 @@
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>59</v>
@@ -6678,7 +6678,7 @@
         <v>7</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>59</v>
@@ -6701,10 +6701,10 @@
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>10</v>
@@ -6724,10 +6724,10 @@
         <v>7</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>13</v>
@@ -6747,10 +6747,10 @@
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>15</v>
@@ -6770,10 +6770,10 @@
         <v>7</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>17</v>
@@ -6793,10 +6793,10 @@
         <v>7</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>19</v>
